--- a/BaseServiçosPrestados.xlsx
+++ b/BaseServiçosPrestados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68d1182545d76c74/Área de Trabalho/Exercicios Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a2ff99b521ca742/Documentos/Mini-Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{EDC2CAAD-9C03-42FF-BECE-AA30DFF58124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{435B815D-7ABE-45BC-A969-16E03AFB82F4}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{EDC2CAAD-9C03-42FF-BECE-AA30DFF58124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{402B54FC-6977-4D48-8E40-CE44669BDABE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -780,7 +780,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -788,20 +788,277 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -812,6 +1069,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6657B523-B17E-4DB0-BA0A-60A5F7DAF942}" name="Tabela1" displayName="Tabela1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:D1048576" xr:uid="{6657B523-B17E-4DB0-BA0A-60A5F7DAF942}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{94E582A2-4854-48FE-A568-E3AAC9412700}" name="Codigo do Servico" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E2E80D34-85EF-4262-8506-6DE03CE30B9B}" name="ID Funcionário" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{31F46CF3-C5E7-43DA-909E-107E0B9C8261}" name="ID Cliente" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E7087290-EBF4-4061-9531-13B4D7ECC610}" name="Tempo Total de Contrato (Meses)" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1078,3592 +1352,3603 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:F238"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>67</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>14</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>17</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>12</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
         <v>116</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>14</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
         <v>37</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>8</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>130</v>
       </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
         <v>8</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
         <v>74</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>12</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>83</v>
       </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="3">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6">
         <v>10</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>9</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>6</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>54</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>10</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>12</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>51</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>11</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>10</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>150</v>
       </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="3">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6">
         <v>10</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>105</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>13</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <v>10</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>65</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>14</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6">
         <v>14</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>37</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>15</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <v>10</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>121</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>16</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="6">
         <v>8</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>101</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>18</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="6">
         <v>14</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>122</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>19</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="6">
         <v>10</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>97</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>20</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="6">
         <v>6</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>27</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>21</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="6">
         <v>6</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>4</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>22</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="6">
         <v>6</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>71</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>24</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="6">
         <v>8</v>
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>100</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>25</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="6">
         <v>8</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>9</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>26</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="6">
         <v>6</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>113</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>27</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="6">
         <v>6</v>
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>39</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>28</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="6">
         <v>14</v>
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>62</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>29</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="6">
         <v>12</v>
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>74</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>30</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="6">
         <v>10</v>
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>119</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>31</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="6">
         <v>6</v>
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>76</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>33</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="6">
         <v>8</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>86</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>35</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="6">
         <v>14</v>
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>88</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>36</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="6">
         <v>8</v>
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>45</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>37</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="6">
         <v>14</v>
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>80</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>39</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="6">
         <v>10</v>
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>37</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>40</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="6">
         <v>12</v>
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>135</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>43</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="6">
         <v>6</v>
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>116</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>44</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="6">
         <v>6</v>
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>17</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>45</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="6">
         <v>4</v>
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>64</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>46</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="6">
         <v>8</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>80</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>47</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="6">
         <v>6</v>
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>52</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>48</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="6">
         <v>10</v>
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>36</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>49</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="6">
         <v>14</v>
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>4</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>51</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="6">
         <v>10</v>
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>142</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>52</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="6">
         <v>12</v>
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>52</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>55</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="6">
         <v>10</v>
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>36</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>56</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="6">
         <v>14</v>
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>49</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>57</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="6">
         <v>14</v>
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>32</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>60</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="6">
         <v>12</v>
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>10</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>61</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="6">
         <v>8</v>
       </c>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>4</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>63</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="6">
         <v>8</v>
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>139</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>64</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="6">
         <v>10</v>
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>49</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>65</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="6">
         <v>6</v>
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>102</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>66</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="6">
         <v>6</v>
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>148</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>67</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="6">
         <v>14</v>
       </c>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>36</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>68</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="6">
         <v>6</v>
       </c>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>118</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>75</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="6">
         <v>6</v>
       </c>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>28</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>76</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="6">
         <v>14</v>
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>54</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>77</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="6">
         <v>12</v>
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>67</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>78</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="6">
         <v>6</v>
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>9</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>79</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="6">
         <v>6</v>
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>73</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>80</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="6">
         <v>12</v>
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>142</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>81</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="6">
         <v>10</v>
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>69</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>82</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="6">
         <v>8</v>
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
         <v>49</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>84</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="6">
         <v>6</v>
       </c>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>142</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>85</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="6">
         <v>12</v>
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>68</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>86</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="6">
         <v>10</v>
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>110</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>87</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="6">
         <v>8</v>
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <v>94</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>88</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="6">
         <v>10</v>
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>69</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>89</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="6">
         <v>12</v>
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>27</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>91</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="6">
         <v>14</v>
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>83</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>92</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="6">
         <v>14</v>
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>24</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <v>93</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="6">
         <v>14</v>
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>5</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>97</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="6">
         <v>6</v>
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>47</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>99</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="6">
         <v>12</v>
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
         <v>3</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <v>101</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="6">
         <v>10</v>
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>44</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>102</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="6">
         <v>12</v>
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>123</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <v>103</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="6">
         <v>10</v>
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>86</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>104</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="6">
         <v>10</v>
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <v>58</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>105</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="6">
         <v>12</v>
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
         <v>7</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>106</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="6">
         <v>10</v>
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>60</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>108</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="6">
         <v>10</v>
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>119</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="3">
         <v>109</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="6">
         <v>6</v>
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3">
         <v>51</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="3">
         <v>110</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="6">
         <v>12</v>
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3">
         <v>111</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="3">
         <v>111</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="6">
         <v>8</v>
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>32</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="3">
         <v>112</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="6">
         <v>10</v>
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <v>57</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="3">
         <v>113</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="6">
         <v>12</v>
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>48</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="3">
         <v>115</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="6">
         <v>8</v>
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <v>110</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="3">
         <v>116</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="6">
         <v>10</v>
       </c>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>7</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="3">
         <v>117</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="6">
         <v>12</v>
       </c>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>84</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="3">
         <v>118</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="6">
         <v>10</v>
       </c>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>111</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="3">
         <v>121</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="6">
         <v>14</v>
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>148</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="3">
         <v>123</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="6">
         <v>6</v>
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>67</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
         <v>125</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="6">
         <v>8</v>
       </c>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>11</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
         <v>128</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="6">
         <v>12</v>
       </c>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>60</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="3">
         <v>129</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="6">
         <v>6</v>
       </c>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>24</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="3">
         <v>130</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="6">
         <v>14</v>
       </c>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>100</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="3">
         <v>131</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="6">
         <v>12</v>
       </c>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>122</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="3">
         <v>132</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="6">
         <v>12</v>
       </c>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3">
         <v>69</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="3">
         <v>133</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="6">
         <v>6</v>
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>77</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="3">
         <v>134</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="6">
         <v>6</v>
       </c>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>105</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="3">
         <v>136</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="6">
         <v>8</v>
       </c>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <v>1</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="3">
         <v>137</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="6">
         <v>8</v>
       </c>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3">
         <v>80</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="3">
         <v>138</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="6">
         <v>6</v>
       </c>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <v>88</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="3">
         <v>140</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="6">
         <v>12</v>
       </c>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="3">
         <v>92</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="3">
         <v>142</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="6">
         <v>8</v>
       </c>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="3">
         <v>37</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="3">
         <v>144</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="6">
         <v>6</v>
       </c>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="3">
         <v>109</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="3">
         <v>145</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="6">
         <v>4</v>
       </c>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="3">
         <v>27</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="3">
         <v>146</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="6">
         <v>6</v>
       </c>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="3">
         <v>31</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="3">
         <v>147</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="6">
         <v>12</v>
       </c>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="3">
         <v>77</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="3">
         <v>148</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="6">
         <v>6</v>
       </c>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="3">
         <v>144</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="3">
         <v>149</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="6">
         <v>14</v>
       </c>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="3">
         <v>23</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="3">
         <v>150</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="6">
         <v>8</v>
       </c>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="3">
         <v>49</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="3">
         <v>151</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="6">
         <v>8</v>
       </c>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="3">
         <v>73</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="3">
         <v>152</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="6">
         <v>6</v>
       </c>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="3">
         <v>131</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="3">
         <v>153</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="6">
         <v>6</v>
       </c>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="3">
         <v>35</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="3">
         <v>155</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="6">
         <v>8</v>
       </c>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="3">
         <v>60</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="3">
         <v>157</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="6">
         <v>14</v>
       </c>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="3">
         <v>124</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="3">
         <v>159</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="6">
         <v>8</v>
       </c>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="3">
         <v>44</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="3">
         <v>160</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="6">
         <v>8</v>
       </c>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="3">
         <v>54</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="3">
         <v>161</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="6">
         <v>8</v>
       </c>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="3">
         <v>125</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="3">
         <v>163</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="6">
         <v>6</v>
       </c>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="3">
         <v>60</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="3">
         <v>167</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="6">
         <v>10</v>
       </c>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="3">
         <v>135</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="3">
         <v>168</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="6">
         <v>6</v>
       </c>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="3">
         <v>92</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="3">
         <v>169</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="6">
         <v>8</v>
       </c>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="3">
         <v>47</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="3">
         <v>171</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="6">
         <v>14</v>
       </c>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="3">
         <v>23</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="3">
         <v>172</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="6">
         <v>12</v>
       </c>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="3">
         <v>144</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="3">
         <v>173</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="6">
         <v>14</v>
       </c>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="3">
         <v>70</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="3">
         <v>174</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="6">
         <v>6</v>
       </c>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="3">
         <v>67</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="3">
         <v>175</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="6">
         <v>6</v>
       </c>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="3">
         <v>110</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="3">
         <v>176</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="6">
         <v>8</v>
       </c>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="3">
         <v>90</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="3">
         <v>177</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="6">
         <v>14</v>
       </c>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="3">
         <v>34</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="3">
         <v>179</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="6">
         <v>12</v>
       </c>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="3">
         <v>4</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="3">
         <v>182</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="6">
         <v>12</v>
       </c>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="3">
         <v>29</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="3">
         <v>185</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="6">
         <v>4</v>
       </c>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="3">
         <v>16</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="3">
         <v>186</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="6">
         <v>8</v>
       </c>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="3">
         <v>80</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="3">
         <v>187</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="6">
         <v>10</v>
       </c>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="3">
         <v>68</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="3">
         <v>188</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="6">
         <v>14</v>
       </c>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="3">
         <v>62</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="3">
         <v>190</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="6">
         <v>12</v>
       </c>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="3">
         <v>22</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="3">
         <v>191</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="6">
         <v>14</v>
       </c>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="3">
         <v>148</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="3">
         <v>192</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="6">
         <v>14</v>
       </c>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="3">
         <v>112</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="3">
         <v>194</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="6">
         <v>6</v>
       </c>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="3">
         <v>31</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="3">
         <v>195</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="6">
         <v>12</v>
       </c>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="3">
         <v>27</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="3">
         <v>196</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="6">
         <v>12</v>
       </c>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="3">
         <v>109</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="3">
         <v>197</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="6">
         <v>12</v>
       </c>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="3">
         <v>93</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="3">
         <v>198</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="6">
         <v>12</v>
       </c>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="3">
         <v>144</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="3">
         <v>199</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="6">
         <v>12</v>
       </c>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="3">
         <v>17</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="3">
         <v>200</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="6">
         <v>14</v>
       </c>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="3">
         <v>28</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="3">
         <v>201</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="6">
         <v>12</v>
       </c>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="3">
         <v>38</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="3">
         <v>202</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="6">
         <v>8</v>
       </c>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="3">
         <v>35</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="3">
         <v>203</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="6">
         <v>10</v>
       </c>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="3">
         <v>54</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="3">
         <v>204</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="6">
         <v>8</v>
       </c>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="3">
         <v>26</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="3">
         <v>205</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="6">
         <v>8</v>
       </c>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="3">
         <v>13</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="3">
         <v>206</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="6">
         <v>14</v>
       </c>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="3">
         <v>24</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="3">
         <v>208</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="6">
         <v>12</v>
       </c>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="3">
         <v>103</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="3">
         <v>211</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="6">
         <v>8</v>
       </c>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="3">
         <v>11</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="3">
         <v>212</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="6">
         <v>12</v>
       </c>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="3">
         <v>135</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="3">
         <v>213</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="6">
         <v>14</v>
       </c>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="3">
         <v>68</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="3">
         <v>214</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="6">
         <v>6</v>
       </c>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="3">
         <v>109</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="3">
         <v>215</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159" s="6">
         <v>6</v>
       </c>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B160">
-        <v>8</v>
-      </c>
-      <c r="C160">
+      <c r="B160" s="3">
+        <v>8</v>
+      </c>
+      <c r="C160" s="3">
         <v>218</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160" s="6">
         <v>14</v>
       </c>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="3">
         <v>47</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="3">
         <v>219</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161" s="6">
         <v>14</v>
       </c>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="3">
         <v>68</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="3">
         <v>220</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="6">
         <v>8</v>
       </c>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="3">
         <v>137</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="3">
         <v>221</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163" s="6">
         <v>10</v>
       </c>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="3">
         <v>7</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="3">
         <v>223</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164" s="6">
         <v>8</v>
       </c>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="3">
         <v>85</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="3">
         <v>224</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="6">
         <v>6</v>
       </c>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="3">
         <v>138</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="3">
         <v>225</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166" s="6">
         <v>8</v>
       </c>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="3">
         <v>34</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="3">
         <v>226</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167" s="6">
         <v>6</v>
       </c>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="3">
         <v>3</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="3">
         <v>227</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168" s="6">
         <v>4</v>
       </c>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="3">
         <v>118</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="3">
         <v>228</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D169" s="6">
         <v>12</v>
       </c>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="3">
         <v>116</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="3">
         <v>229</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170" s="6">
         <v>12</v>
       </c>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="3">
         <v>97</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="3">
         <v>230</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171" s="6">
         <v>12</v>
       </c>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="3">
         <v>18</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="3">
         <v>233</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172" s="6">
         <v>8</v>
       </c>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="3">
         <v>34</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="3">
         <v>235</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173" s="6">
         <v>14</v>
       </c>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="3">
         <v>47</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="3">
         <v>236</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174" s="6">
         <v>12</v>
       </c>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="3">
         <v>135</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="3">
         <v>237</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175" s="6">
         <v>8</v>
       </c>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="3">
         <v>37</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="3">
         <v>238</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176" s="6">
         <v>12</v>
       </c>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="3">
         <v>86</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="3">
         <v>239</v>
       </c>
-      <c r="D177" s="3">
+      <c r="D177" s="6">
         <v>10</v>
       </c>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="3">
         <v>16</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="3">
         <v>240</v>
       </c>
-      <c r="D178" s="3">
+      <c r="D178" s="6">
         <v>10</v>
       </c>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="3">
         <v>46</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="3">
         <v>241</v>
       </c>
-      <c r="D179" s="3">
+      <c r="D179" s="6">
         <v>8</v>
       </c>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="3">
         <v>17</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="3">
         <v>242</v>
       </c>
-      <c r="D180" s="3">
+      <c r="D180" s="6">
         <v>12</v>
       </c>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="3">
         <v>138</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="3">
         <v>243</v>
       </c>
-      <c r="D181" s="3">
+      <c r="D181" s="6">
         <v>8</v>
       </c>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="3">
         <v>77</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="3">
         <v>244</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D182" s="6">
         <v>6</v>
       </c>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="3">
         <v>58</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="3">
         <v>245</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D183" s="6">
         <v>10</v>
       </c>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B184">
-        <v>8</v>
-      </c>
-      <c r="C184">
+      <c r="B184" s="3">
+        <v>8</v>
+      </c>
+      <c r="C184" s="3">
         <v>246</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184" s="6">
         <v>8</v>
       </c>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="3">
         <v>51</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="3">
         <v>247</v>
       </c>
-      <c r="D185" s="3">
+      <c r="D185" s="6">
         <v>8</v>
       </c>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="3">
         <v>62</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="3">
         <v>248</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D186" s="6">
         <v>10</v>
       </c>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="3">
         <v>66</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="3">
         <v>249</v>
       </c>
-      <c r="D187" s="3">
+      <c r="D187" s="6">
         <v>14</v>
       </c>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="3">
         <v>84</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="3">
         <v>250</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D188" s="6">
         <v>12</v>
       </c>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="3">
         <v>94</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="3">
         <v>251</v>
       </c>
-      <c r="D189" s="3">
+      <c r="D189" s="6">
         <v>12</v>
       </c>
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="3">
         <v>77</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="3">
         <v>252</v>
       </c>
-      <c r="D190" s="3">
+      <c r="D190" s="6">
         <v>12</v>
       </c>
       <c r="E190" s="2"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="3">
         <v>76</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="3">
         <v>253</v>
       </c>
-      <c r="D191" s="3">
+      <c r="D191" s="6">
         <v>8</v>
       </c>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="3">
         <v>31</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="3">
         <v>255</v>
       </c>
-      <c r="D192" s="3">
+      <c r="D192" s="6">
         <v>6</v>
       </c>
       <c r="E192" s="2"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="3">
         <v>124</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="3">
         <v>257</v>
       </c>
-      <c r="D193" s="3">
+      <c r="D193" s="6">
         <v>14</v>
       </c>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="3">
         <v>47</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="3">
         <v>259</v>
       </c>
-      <c r="D194" s="3">
+      <c r="D194" s="6">
         <v>6</v>
       </c>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="3">
         <v>29</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="3">
         <v>260</v>
       </c>
-      <c r="D195" s="3">
+      <c r="D195" s="6">
         <v>8</v>
       </c>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="3">
         <v>58</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="3">
         <v>261</v>
       </c>
-      <c r="D196" s="3">
+      <c r="D196" s="6">
         <v>8</v>
       </c>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="3">
         <v>132</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="3">
         <v>264</v>
       </c>
-      <c r="D197" s="3">
+      <c r="D197" s="6">
         <v>8</v>
       </c>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="3">
         <v>84</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="3">
         <v>267</v>
       </c>
-      <c r="D198" s="3">
+      <c r="D198" s="6">
         <v>6</v>
       </c>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="3">
         <v>127</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="3">
         <v>271</v>
       </c>
-      <c r="D199" s="3">
+      <c r="D199" s="6">
         <v>14</v>
       </c>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="3">
         <v>7</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="3">
         <v>272</v>
       </c>
-      <c r="D200" s="3">
+      <c r="D200" s="6">
         <v>6</v>
       </c>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="3">
         <v>76</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="3">
         <v>273</v>
       </c>
-      <c r="D201" s="3">
+      <c r="D201" s="6">
         <v>14</v>
       </c>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="3">
         <v>38</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="3">
         <v>276</v>
       </c>
-      <c r="D202" s="3">
+      <c r="D202" s="6">
         <v>12</v>
       </c>
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="3">
         <v>138</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="3">
         <v>277</v>
       </c>
-      <c r="D203" s="3">
+      <c r="D203" s="6">
         <v>12</v>
       </c>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="3">
         <v>47</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="3">
         <v>278</v>
       </c>
-      <c r="D204" s="3">
+      <c r="D204" s="6">
         <v>8</v>
       </c>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="3">
         <v>84</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="3">
         <v>279</v>
       </c>
-      <c r="D205" s="3">
+      <c r="D205" s="6">
         <v>10</v>
       </c>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="3">
         <v>100</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="3">
         <v>280</v>
       </c>
-      <c r="D206" s="3">
+      <c r="D206" s="6">
         <v>12</v>
       </c>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="3">
         <v>86</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="3">
         <v>281</v>
       </c>
-      <c r="D207" s="3">
+      <c r="D207" s="6">
         <v>8</v>
       </c>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="3">
         <v>39</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="3">
         <v>282</v>
       </c>
-      <c r="D208" s="3">
+      <c r="D208" s="6">
         <v>8</v>
       </c>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="3">
         <v>44</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="3">
         <v>283</v>
       </c>
-      <c r="D209" s="3">
+      <c r="D209" s="6">
         <v>8</v>
       </c>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="3">
         <v>76</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="3">
         <v>285</v>
       </c>
-      <c r="D210" s="3">
+      <c r="D210" s="6">
         <v>12</v>
       </c>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="3">
         <v>132</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="3">
         <v>286</v>
       </c>
-      <c r="D211" s="3">
+      <c r="D211" s="6">
         <v>14</v>
       </c>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="3">
         <v>124</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="3">
         <v>287</v>
       </c>
-      <c r="D212" s="3">
+      <c r="D212" s="6">
         <v>10</v>
       </c>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="3">
         <v>103</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="3">
         <v>288</v>
       </c>
-      <c r="D213" s="3">
+      <c r="D213" s="6">
         <v>6</v>
       </c>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="3">
         <v>57</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="3">
         <v>290</v>
       </c>
-      <c r="D214" s="3">
+      <c r="D214" s="6">
         <v>12</v>
       </c>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="3">
         <v>122</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="3">
         <v>291</v>
       </c>
-      <c r="D215" s="3">
+      <c r="D215" s="6">
         <v>10</v>
       </c>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="3">
         <v>109</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="3">
         <v>292</v>
       </c>
-      <c r="D216" s="3">
+      <c r="D216" s="6">
         <v>4</v>
       </c>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="3">
         <v>23</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="3">
         <v>293</v>
       </c>
-      <c r="D217" s="3">
+      <c r="D217" s="6">
         <v>6</v>
       </c>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="3">
         <v>103</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="3">
         <v>294</v>
       </c>
-      <c r="D218" s="3">
+      <c r="D218" s="6">
         <v>10</v>
       </c>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="3">
         <v>51</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="3">
         <v>295</v>
       </c>
-      <c r="D219" s="3">
+      <c r="D219" s="6">
         <v>10</v>
       </c>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="3">
         <v>52</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="3">
         <v>296</v>
       </c>
-      <c r="D220" s="3">
+      <c r="D220" s="6">
         <v>14</v>
       </c>
       <c r="E220" s="2"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="3">
         <v>139</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="3">
         <v>297</v>
       </c>
-      <c r="D221" s="3">
+      <c r="D221" s="6">
         <v>8</v>
       </c>
       <c r="E221" s="2"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="3">
         <v>84</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="3">
         <v>301</v>
       </c>
-      <c r="D222" s="3">
+      <c r="D222" s="6">
         <v>10</v>
       </c>
       <c r="E222" s="2"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="3">
         <v>74</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="3">
         <v>302</v>
       </c>
-      <c r="D223" s="3">
+      <c r="D223" s="6">
         <v>6</v>
       </c>
       <c r="E223" s="2"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="3">
         <v>121</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="3">
         <v>303</v>
       </c>
-      <c r="D224" s="3">
+      <c r="D224" s="6">
         <v>4</v>
       </c>
       <c r="E224" s="2"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="3">
         <v>25</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="3">
         <v>304</v>
       </c>
-      <c r="D225" s="3">
+      <c r="D225" s="6">
         <v>14</v>
       </c>
       <c r="E225" s="2"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="3">
         <v>123</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="3">
         <v>305</v>
       </c>
-      <c r="D226" s="3">
+      <c r="D226" s="6">
         <v>14</v>
       </c>
       <c r="E226" s="2"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="3">
         <v>26</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="3">
         <v>306</v>
       </c>
-      <c r="D227" s="3">
+      <c r="D227" s="6">
         <v>4</v>
       </c>
       <c r="E227" s="2"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="3">
         <v>65</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="3">
         <v>307</v>
       </c>
-      <c r="D228" s="3">
+      <c r="D228" s="6">
         <v>6</v>
       </c>
       <c r="E228" s="2"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="3">
         <v>79</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="3">
         <v>308</v>
       </c>
-      <c r="D229" s="3">
+      <c r="D229" s="6">
         <v>10</v>
       </c>
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="3">
         <v>99</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="3">
         <v>309</v>
       </c>
-      <c r="D230" s="3">
+      <c r="D230" s="6">
         <v>8</v>
       </c>
       <c r="E230" s="2"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="3">
         <v>14</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="3">
         <v>310</v>
       </c>
-      <c r="D231" s="3">
+      <c r="D231" s="6">
         <v>12</v>
       </c>
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="3">
         <v>4</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="3">
         <v>311</v>
       </c>
-      <c r="D232" s="3">
+      <c r="D232" s="6">
         <v>6</v>
       </c>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="3">
         <v>112</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="3">
         <v>311</v>
       </c>
-      <c r="D233" s="3">
+      <c r="D233" s="6">
         <v>14</v>
       </c>
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="3">
         <v>111</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="3">
         <v>315</v>
       </c>
-      <c r="D234" s="3">
+      <c r="D234" s="6">
         <v>4</v>
       </c>
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="3">
         <v>124</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="3">
         <v>316</v>
       </c>
-      <c r="D235" s="3">
+      <c r="D235" s="6">
         <v>8</v>
       </c>
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="3">
         <v>72</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="3">
         <v>317</v>
       </c>
-      <c r="D236" s="3">
+      <c r="D236" s="6">
         <v>6</v>
       </c>
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="3">
         <v>90</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="3">
         <v>319</v>
       </c>
-      <c r="D237" s="3">
+      <c r="D237" s="6">
         <v>14</v>
       </c>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="3">
         <v>22</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="3">
         <v>320</v>
       </c>
-      <c r="D238" s="3">
+      <c r="D238" s="6">
         <v>12</v>
       </c>
       <c r="E238" s="2"/>
+    </row>
+    <row r="1048576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1048576" s="10"/>
+      <c r="B1048576" s="11"/>
+      <c r="C1048576" s="11"/>
+      <c r="D1048576" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>